--- a/DICTIONARIES-xpath.xlsx
+++ b/DICTIONARIES-xpath.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UK-ICS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="20400" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="20400" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DICTIONARY-xpath" sheetId="1" r:id="rId1"/>
+    <sheet name="0KBL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1027">
   <si>
     <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/l/li/p/table/tgroup/tbody/row</t>
   </si>
@@ -2420,13 +2426,688 @@
   </si>
   <si>
     <t>FILENAME</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition</t>
+  </si>
+  <si>
+    <t>dict:subtopic</t>
+  </si>
+  <si>
+    <t>dict:detailed-definition</t>
+  </si>
+  <si>
+    <t>No Attributes</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004211_999.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2</t>
+  </si>
+  <si>
+    <t>in:lev1</t>
+  </si>
+  <si>
+    <t>in:lev2</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref/ci:reporter</t>
+  </si>
+  <si>
+    <t>ci:caseref</t>
+  </si>
+  <si>
+    <t>ci:reporter</t>
+  </si>
+  <si>
+    <t>(@value)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_003095_4741.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:lev6/in:entry/in:entry-text/remotelink</t>
+  </si>
+  <si>
+    <t>in:entry-text</t>
+  </si>
+  <si>
+    <t>remotelink</t>
+  </si>
+  <si>
+    <t>(@service,@remotekey1,@refpt,@dpsi)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004015_82.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/emph/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint/ci:hierlev</t>
+  </si>
+  <si>
+    <t>ci:hierpinpoint</t>
+  </si>
+  <si>
+    <t>ci:hierlev</t>
+  </si>
+  <si>
+    <t>(@label,@num)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_001624_34.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/l/li/p/text</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_002864_453.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/remotelink/emph/emph</t>
+  </si>
+  <si>
+    <t>emph</t>
+  </si>
+  <si>
+    <t>(@typestyle)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_003416_506.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref</t>
+  </si>
+  <si>
+    <t>ci:lawrev</t>
+  </si>
+  <si>
+    <t>ci:lawrevref</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004001_807.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/heading/title/link</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>(@refpt,@status)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawref</t>
+  </si>
+  <si>
+    <t>ci:sesslaw</t>
+  </si>
+  <si>
+    <t>ci:sesslawref</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004198_987.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/heading</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004181_971.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref/ci:volume</t>
+  </si>
+  <si>
+    <t>ci:volume</t>
+  </si>
+  <si>
+    <t>(@num)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:edition</t>
+  </si>
+  <si>
+    <t>ci:edition</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004205_993.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/heading/title/link/inlineobject</t>
+  </si>
+  <si>
+    <t>inlineobject</t>
+  </si>
+  <si>
+    <t>(@type,@alt-content,@filename)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref/ci:edition</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:lev6/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:issue</t>
+  </si>
+  <si>
+    <t>ci:lawrevlocator</t>
+  </si>
+  <si>
+    <t>ci:issue</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_000408_1368.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint</t>
+  </si>
+  <si>
+    <t>ci:sesslawinfo</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:volume</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw</t>
+  </si>
+  <si>
+    <t>ci:cite</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawref</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004209_997.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:entry/in:entry-text/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:pinpoint</t>
+  </si>
+  <si>
+    <t>ci:pinpoint</t>
+  </si>
+  <si>
+    <t>(@num,@targettype)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004201_99.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:lev6/in:entry/in:entry-text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition</t>
+  </si>
+  <si>
+    <t>dict:short-definition</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/remotelink</t>
+  </si>
+  <si>
+    <t>(@service,@remotekey1,@dpsi,@refpt)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:content</t>
+  </si>
+  <si>
+    <t>ci:content</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint/ci:hierlev</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/emph/emph/remotelink</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004162_954.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawref/ci:standardname</t>
+  </si>
+  <si>
+    <t>ci:standardname</t>
+  </si>
+  <si>
+    <t>(@normpubcode)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:entry-text/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/emph/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite</t>
+  </si>
+  <si>
+    <t>(@searchtype,@status)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:issue</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:sesslawnum</t>
+  </si>
+  <si>
+    <t>ci:sesslawnum</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:issue/ci:date</t>
+  </si>
+  <si>
+    <t>ci:date</t>
+  </si>
+  <si>
+    <t>(@year)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/see-also/remotelink</t>
+  </si>
+  <si>
+    <t>see-also</t>
+  </si>
+  <si>
+    <t>(@service,@remotekey1,@dpsi,@remotekey2)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004210_998.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:index-ref</t>
+  </si>
+  <si>
+    <t>in:index-ref</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4</t>
+  </si>
+  <si>
+    <t>in:lev3</t>
+  </si>
+  <si>
+    <t>in:lev4</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/docinfo/docinfo:topiccodes/docinfo:topiccode</t>
+  </si>
+  <si>
+    <t>docinfo:topiccodes</t>
+  </si>
+  <si>
+    <t>docinfo:topiccode</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index</t>
+  </si>
+  <si>
+    <t>(@status)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref/ci:page</t>
+  </si>
+  <si>
+    <t>ci:page</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:publicationname</t>
+  </si>
+  <si>
+    <t>ci:publicationname</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:index-ref/refpt</t>
+  </si>
+  <si>
+    <t>refpt</t>
+  </si>
+  <si>
+    <t>(@id,@type)</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:equivalent-term</t>
+  </si>
+  <si>
+    <t>dict:equivalent-term</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:issue/ci:date</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawref/ci:standardname</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref</t>
+  </si>
+  <si>
+    <t>ci:case</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/emph/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:lev6/in:entry</t>
+  </si>
+  <si>
+    <t>in:lev6</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/remotelink/emph/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_003911_725.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry/in:entry-text/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:entry-text/emph/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref/ci:edition/ci:date</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:note</t>
+  </si>
+  <si>
+    <t>dict:note</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:entry/in:entry-text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5</t>
+  </si>
+  <si>
+    <t>in:lev5</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/see-also</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004184_974.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:hierpinpoint/ci:hierlev</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry/in:entry-text/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:publicationname</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry/in:entry-text/emph/remotelink</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_003805_63.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:volume</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_001394_3191.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/emph/emph/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/emph/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:page</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_001199_2096.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/heading/title</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/emph/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/emph/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:reporter</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:entry/in:entry-text/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004120_915.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_000721_1650.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/emph/remotelink/emph</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_003772_60.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:page</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo</t>
+  </si>
+  <si>
+    <t>(@searchtype)</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004016_820.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/l/li</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:case/ci:caseref/ci:edition/ci:date</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:entry/in:entry-text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:content</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:entry/in:entry-text/emph/remotelink</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:short-definition/p/text/ci:cite/ci:case/ci:caseref</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev/ci:lawrevref/ci:lawrevlocator/ci:page</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/l/li/lilabel</t>
+  </si>
+  <si>
+    <t>lilabel</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:entry-text</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004032_835.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:entry</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:entry/in:entry-text/emph/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:entry/in:entry-text/remotelink/emph</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/p/remotelink</t>
+  </si>
+  <si>
+    <t>C:\Dayanand\Project\0KBL\0KBL\0KBL_004206_994.xml</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/l</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:lawrev</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/p/text/ci:cite/ci:sesslaw/ci:sesslawinfo/ci:sesslawnum</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/docinfo/docinfo:topiccodes</t>
+  </si>
+  <si>
+    <t>docinfo</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/dict:detailed-definition/l/li/p</t>
+  </si>
+  <si>
+    <t>/DICTIONARYDOC/dict:body/dict:term-entry/dict:definition/dict:subtopic/index/in:lev1/in:lev2/in:lev3/in:lev4/in:lev5/in:lev6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2561,6 +3242,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2925,7 +3616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2940,6 +3631,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2991,6 +3685,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3038,7 +3735,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3071,9 +3768,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3106,6 +3820,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3284,12 +4015,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B723"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.25" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +4271,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -3564,7 +4295,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>673</v>
       </c>
@@ -3612,7 +4343,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3644,7 +4375,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>430</v>
       </c>
@@ -3660,7 +4391,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>669</v>
       </c>
@@ -3668,7 +4399,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>553</v>
       </c>
@@ -3676,7 +4407,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -3692,7 +4423,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>506</v>
       </c>
@@ -3748,7 +4479,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>500</v>
       </c>
@@ -3764,7 +4495,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>32</v>
       </c>
@@ -3780,7 +4511,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>509</v>
       </c>
@@ -3788,7 +4519,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -3836,7 +4567,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>418</v>
       </c>
@@ -3844,7 +4575,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -3916,7 +4647,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>612</v>
       </c>
@@ -3940,7 +4671,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>257</v>
       </c>
@@ -4124,7 +4855,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>301</v>
       </c>
@@ -4132,7 +4863,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>576</v>
       </c>
@@ -4172,7 +4903,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>156</v>
       </c>
@@ -4180,7 +4911,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>129</v>
       </c>
@@ -4244,7 +4975,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>562</v>
       </c>
@@ -4252,7 +4983,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>256</v>
       </c>
@@ -4260,7 +4991,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +4999,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>513</v>
       </c>
@@ -4372,7 +5103,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>463</v>
       </c>
@@ -4388,7 +5119,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>699</v>
       </c>
@@ -4500,7 +5231,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>469</v>
       </c>
@@ -4508,7 +5239,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>657</v>
       </c>
@@ -4548,7 +5279,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>512</v>
       </c>
@@ -4556,7 +5287,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>349</v>
       </c>
@@ -4564,7 +5295,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>369</v>
       </c>
@@ -4588,7 +5319,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>238</v>
       </c>
@@ -4612,7 +5343,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>451</v>
       </c>
@@ -4628,7 +5359,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>120</v>
       </c>
@@ -4652,7 +5383,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>712</v>
       </c>
@@ -4660,7 +5391,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>101</v>
       </c>
@@ -4676,7 +5407,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>160</v>
       </c>
@@ -4716,7 +5447,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>274</v>
       </c>
@@ -4772,7 +5503,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>360</v>
       </c>
@@ -4828,7 +5559,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>174</v>
       </c>
@@ -4836,7 +5567,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>514</v>
       </c>
@@ -4852,7 +5583,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>632</v>
       </c>
@@ -4860,7 +5591,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>194</v>
       </c>
@@ -4900,7 +5631,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>227</v>
       </c>
@@ -4908,7 +5639,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>262</v>
       </c>
@@ -4932,7 +5663,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>438</v>
       </c>
@@ -4948,7 +5679,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>424</v>
       </c>
@@ -4964,7 +5695,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>288</v>
       </c>
@@ -5004,7 +5735,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>521</v>
       </c>
@@ -5060,7 +5791,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>561</v>
       </c>
@@ -5092,7 +5823,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>715</v>
       </c>
@@ -5108,7 +5839,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>503</v>
       </c>
@@ -5116,7 +5847,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>563</v>
       </c>
@@ -5188,7 +5919,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>359</v>
       </c>
@@ -5212,7 +5943,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>650</v>
       </c>
@@ -5244,7 +5975,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>652</v>
       </c>
@@ -5268,7 +5999,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>185</v>
       </c>
@@ -5276,7 +6007,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>220</v>
       </c>
@@ -5284,7 +6015,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>119</v>
       </c>
@@ -5292,7 +6023,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>408</v>
       </c>
@@ -5300,7 +6031,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>583</v>
       </c>
@@ -5308,7 +6039,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>186</v>
       </c>
@@ -5324,7 +6055,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>709</v>
       </c>
@@ -5372,7 +6103,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>654</v>
       </c>
@@ -5396,7 +6127,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>13</v>
       </c>
@@ -5404,7 +6135,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>504</v>
       </c>
@@ -5412,7 +6143,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>450</v>
       </c>
@@ -5436,7 +6167,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>392</v>
       </c>
@@ -5452,7 +6183,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>519</v>
       </c>
@@ -5500,7 +6231,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>449</v>
       </c>
@@ -5516,7 +6247,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>213</v>
       </c>
@@ -5572,7 +6303,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>492</v>
       </c>
@@ -5604,7 +6335,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>606</v>
       </c>
@@ -5612,7 +6343,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>16</v>
       </c>
@@ -5676,7 +6407,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>5</v>
       </c>
@@ -5700,7 +6431,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>517</v>
       </c>
@@ -5780,7 +6511,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>529</v>
       </c>
@@ -5788,7 +6519,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>482</v>
       </c>
@@ -5836,7 +6567,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>597</v>
       </c>
@@ -5908,7 +6639,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>66</v>
       </c>
@@ -5924,7 +6655,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>60</v>
       </c>
@@ -5980,7 +6711,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>689</v>
       </c>
@@ -6012,7 +6743,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>705</v>
       </c>
@@ -6036,7 +6767,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>196</v>
       </c>
@@ -6044,7 +6775,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>12</v>
       </c>
@@ -6052,7 +6783,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>2</v>
       </c>
@@ -6092,7 +6823,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>383</v>
       </c>
@@ -6100,7 +6831,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>51</v>
       </c>
@@ -6172,7 +6903,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>378</v>
       </c>
@@ -6180,7 +6911,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>264</v>
       </c>
@@ -6204,7 +6935,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>405</v>
       </c>
@@ -6268,7 +6999,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>252</v>
       </c>
@@ -6276,7 +7007,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>579</v>
       </c>
@@ -6284,7 +7015,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>602</v>
       </c>
@@ -6396,7 +7127,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>584</v>
       </c>
@@ -6412,7 +7143,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>344</v>
       </c>
@@ -6516,7 +7247,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>326</v>
       </c>
@@ -6524,7 +7255,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>538</v>
       </c>
@@ -6540,7 +7271,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>523</v>
       </c>
@@ -6620,7 +7351,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>396</v>
       </c>
@@ -6644,7 +7375,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>713</v>
       </c>
@@ -6668,7 +7399,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>1</v>
       </c>
@@ -6684,7 +7415,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>329</v>
       </c>
@@ -6692,7 +7423,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>180</v>
       </c>
@@ -6740,7 +7471,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>346</v>
       </c>
@@ -6764,7 +7495,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>291</v>
       </c>
@@ -6780,7 +7511,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>631</v>
       </c>
@@ -6804,7 +7535,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>663</v>
       </c>
@@ -6820,7 +7551,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>455</v>
       </c>
@@ -6860,7 +7591,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>289</v>
       </c>
@@ -6916,7 +7647,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>122</v>
       </c>
@@ -6948,7 +7679,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>248</v>
       </c>
@@ -6956,7 +7687,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>315</v>
       </c>
@@ -6988,7 +7719,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>603</v>
       </c>
@@ -7028,7 +7759,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>389</v>
       </c>
@@ -7060,7 +7791,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>687</v>
       </c>
@@ -7068,7 +7799,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>187</v>
       </c>
@@ -7084,7 +7815,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>177</v>
       </c>
@@ -7092,7 +7823,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>670</v>
       </c>
@@ -7164,7 +7895,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>410</v>
       </c>
@@ -7220,7 +7951,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>31</v>
       </c>
@@ -7244,7 +7975,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>558</v>
       </c>
@@ -7268,7 +7999,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>643</v>
       </c>
@@ -7292,7 +8023,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>617</v>
       </c>
@@ -7324,7 +8055,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>298</v>
       </c>
@@ -7348,7 +8079,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>63</v>
       </c>
@@ -7380,7 +8111,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>188</v>
       </c>
@@ -7420,7 +8151,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>434</v>
       </c>
@@ -7428,7 +8159,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>648</v>
       </c>
@@ -7452,7 +8183,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>704</v>
       </c>
@@ -7468,7 +8199,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>181</v>
       </c>
@@ -7492,7 +8223,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>74</v>
       </c>
@@ -7500,7 +8231,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>33</v>
       </c>
@@ -7508,7 +8239,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>190</v>
       </c>
@@ -7516,7 +8247,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>121</v>
       </c>
@@ -7524,7 +8255,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>638</v>
       </c>
@@ -7652,7 +8383,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>197</v>
       </c>
@@ -7660,7 +8391,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>537</v>
       </c>
@@ -7700,7 +8431,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>634</v>
       </c>
@@ -7708,7 +8439,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>608</v>
       </c>
@@ -7732,7 +8463,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>247</v>
       </c>
@@ -7780,7 +8511,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>380</v>
       </c>
@@ -7788,7 +8519,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>353</v>
       </c>
@@ -7804,7 +8535,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>400</v>
       </c>
@@ -7820,7 +8551,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>445</v>
       </c>
@@ -7828,7 +8559,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>465</v>
       </c>
@@ -7844,7 +8575,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>431</v>
       </c>
@@ -7860,7 +8591,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>52</v>
       </c>
@@ -7876,7 +8607,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>198</v>
       </c>
@@ -7900,7 +8631,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>350</v>
       </c>
@@ -7932,7 +8663,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>34</v>
       </c>
@@ -7956,7 +8687,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>668</v>
       </c>
@@ -7972,7 +8703,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>82</v>
       </c>
@@ -8004,7 +8735,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>478</v>
       </c>
@@ -8052,7 +8783,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>339</v>
       </c>
@@ -8076,7 +8807,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>572</v>
       </c>
@@ -8100,7 +8831,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>244</v>
       </c>
@@ -8108,7 +8839,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>9</v>
       </c>
@@ -8140,7 +8871,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>255</v>
       </c>
@@ -8148,7 +8879,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>567</v>
       </c>
@@ -8164,7 +8895,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>391</v>
       </c>
@@ -8180,7 +8911,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>440</v>
       </c>
@@ -8196,7 +8927,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>153</v>
       </c>
@@ -8212,7 +8943,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>564</v>
       </c>
@@ -8244,7 +8975,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>499</v>
       </c>
@@ -8276,7 +9007,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>137</v>
       </c>
@@ -8300,7 +9031,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>666</v>
       </c>
@@ -8316,7 +9047,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>131</v>
       </c>
@@ -8348,7 +9079,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>605</v>
       </c>
@@ -8380,7 +9111,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>489</v>
       </c>
@@ -8404,7 +9135,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>395</v>
       </c>
@@ -8444,7 +9175,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>399</v>
       </c>
@@ -8452,7 +9183,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>677</v>
       </c>
@@ -8476,7 +9207,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>462</v>
       </c>
@@ -8516,7 +9247,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>373</v>
       </c>
@@ -8524,7 +9255,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>246</v>
       </c>
@@ -8612,7 +9343,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>545</v>
       </c>
@@ -8628,7 +9359,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>83</v>
       </c>
@@ -8644,7 +9375,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>226</v>
       </c>
@@ -8684,7 +9415,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>152</v>
       </c>
@@ -8796,7 +9527,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>270</v>
       </c>
@@ -8812,7 +9543,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>351</v>
       </c>
@@ -8860,7 +9591,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>77</v>
       </c>
@@ -8876,7 +9607,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>310</v>
       </c>
@@ -8924,7 +9655,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>589</v>
       </c>
@@ -8932,7 +9663,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>355</v>
       </c>
@@ -8980,7 +9711,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>376</v>
       </c>
@@ -9012,7 +9743,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>651</v>
       </c>
@@ -9044,7 +9775,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>674</v>
       </c>
@@ -9052,7 +9783,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>144</v>
       </c>
@@ -9068,7 +9799,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>485</v>
       </c>
@@ -9083,4 +9814,2250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="120.140625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="19.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>